--- a/pangea/estructura_arbol_form_v4.xlsx
+++ b/pangea/estructura_arbol_form_v4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox (LANCIS)\CARPETAS_TRABAJO\vhernandez\repositorios_git\cap2\pangea\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{376990D2-6673-496E-8508-E47C6AB8ADFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F65260C4-C9B7-4513-8482-73E33172ABA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1725" windowWidth="29040" windowHeight="15990" tabRatio="763" xr2:uid="{132FCAE6-3C22-426C-B67D-624C576C6FA6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" tabRatio="763" xr2:uid="{132FCAE6-3C22-426C-B67D-624C576C6FA6}"/>
   </bookViews>
   <sheets>
     <sheet name="estructura_arbol_form_final_op" sheetId="5" r:id="rId1"/>
@@ -1262,8 +1262,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:Z103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F73" sqref="F73"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29:N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4592,7 +4592,7 @@
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+      <selection activeCell="A5" sqref="A5:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5735,7 +5735,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4E74CF1-7D8E-4E5A-8368-B97B2F9514E7}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
